--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_80_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_80_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.6700645948236383, 4.140315724167453]</t>
+          <t>[3.6707176950422795, 4.139662623948812]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.023137831380428686, 0.26574165722534193]</t>
+          <t>[-0.02311164336546101, 0.26571546921037426]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.09766349428751608</v>
+        <v>0.09760454571065647</v>
       </c>
       <c r="V2" t="n">
-        <v>0.09766349428751608</v>
+        <v>0.09760454571065647</v>
       </c>
       <c r="W2" t="n">
         <v>0.7344944944945091</v>
